--- a/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>1.6229748</v>
+        <v>1.62029688</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1.4545752346666</v>
@@ -601,7 +601,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>8.088492569999998</v>
+        <v>8.08049834</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>7.381833818965517</v>
@@ -628,7 +628,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1.16162117</v>
+        <v>1.16101994</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>0.89686797</v>
@@ -655,7 +655,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>5.1666412</v>
+        <v>5.15099223</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>3.878938210002</v>
@@ -682,7 +682,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>1.13584225</v>
+        <v>1.13576624</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>0.7705170111818183</v>
@@ -709,7 +709,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>2.01386667</v>
+        <v>2.00114224</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>1.67850169</v>
@@ -736,7 +736,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>1.4602869</v>
+        <v>1.44463268</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>1.39220786</v>
@@ -763,7 +763,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>5.4821094</v>
+        <v>5.473400020000001</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>5.225904689</v>
@@ -790,7 +790,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>5.88707507</v>
+        <v>5.86832554</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>5.79783067577466</v>
@@ -817,7 +817,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>19.07760146</v>
+        <v>19.06740346</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>14.414882479999</v>
@@ -844,7 +844,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>2.91385131</v>
+        <v>2.53884131</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>2.496042759999999</v>
@@ -871,7 +871,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>13.49884552</v>
+        <v>13.49259302</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>11.46386725</v>
@@ -898,7 +898,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>1.95852772</v>
+        <v>1.94824884</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>1.710115875862069</v>
@@ -925,7 +925,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0.3878630200000001</v>
+        <v>0.3849071900000001</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0.34174558</v>
@@ -952,7 +952,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>10.03823625</v>
+        <v>10.01806963</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>9.693260934</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>0.38665752</v>
+        <v>0.38665748</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>0.38501975</v>
@@ -1006,75 +1006,131 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Salmon</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>1.014451</v>
-      </c>
+          <t>Deep Sea</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="n">
-        <v>0.375009</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>19.7353802540078</v>
+        <v>0.39069494</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>70.87896192485682</v>
+        <v>31.05998762103241</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>9.38565782113537</v>
+        <v>68.94001237896759</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>90.61434217886463</v>
+        <v>31.05998762103241</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>9.38565782113537</v>
+        <v>68.94001237896759</v>
       </c>
       <c r="I20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Sharks</t>
+          <t>Salmon</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>0.13268879</v>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>0.07928484</v>
+        <v>0.375009</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.375009</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>60.73272015179699</v>
+        <v>19.7353802540078</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>28.64299152271734</v>
+        <v>70.87896192485682</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>10.62428832548568</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>89.37571167451432</v>
+        <v>90.61434217886463</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>10.62428832548568</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="I21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
+          <t>Sharks</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>0.13268879</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>0.07928484</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>60.73272015179699</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>28.64299152271734</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>10.62428832548568</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>89.37571167451432</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>10.62428832548568</v>
+      </c>
+      <c r="I22" s="6" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>80.28049283000001</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>69.82710056945166</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>26.54050139689777</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>48.26523387391202</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>25.19426472919022</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>74.80573527080979</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>25.19426472919022</v>
+      </c>
+      <c r="I23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
           <t>Footnote</t>
         </is>
       </c>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
-      <c r="F22" s="6" t="n"/>
-      <c r="G22" s="6" t="n"/>
-      <c r="H22" s="6" t="n"/>
-      <c r="I22" t="inlineStr">
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="6" t="n"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Note: Percent coverage in this sheet (Total Assessed Landings / Total Landings * 100) does not reflect reported percent coverage. 
 For percent coverage, the landings of 'Salmon', 'Tuna', 'Deep Sea' and 'Sharks' are incorporated in the FAO major fishing areas 

--- a/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
@@ -628,7 +628,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1.16101994</v>
+        <v>1.16149575</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>0.89686797</v>
@@ -736,7 +736,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>1.44463268</v>
+        <v>1.46028682</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>1.39220786</v>
@@ -763,7 +763,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>5.473400020000001</v>
+        <v>5.48062645</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>5.225904689</v>
@@ -790,7 +790,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>5.86832554</v>
+        <v>5.887074779999999</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>5.79783067577466</v>
@@ -871,7 +871,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>13.49259302</v>
+        <v>13.49297413</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>11.46386725</v>
@@ -898,7 +898,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>1.94824884</v>
+        <v>1.95212903</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>1.710115875862069</v>
@@ -925,7 +925,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0.3849071900000001</v>
+        <v>0.3872362600000001</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0.34174558</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>80.28049283000001</v>
+        <v>80.32918882</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>69.82710056945166</v>
@@ -1132,9 +1132,11 @@
       <c r="H24" s="6" t="n"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Note: Percent coverage in this sheet (Total Assessed Landings / Total Landings * 100) does not reflect reported percent coverage. 
-For percent coverage, the landings of 'Salmon', 'Tuna', 'Deep Sea' and 'Sharks' are incorporated in the FAO major fishing areas 
-from which their landings are reported. Thus, percent coverage calculated from this table will appear lower than reported elsewhere.</t>
+          <t>Note: Percent coverage in this sheet does not reflect reported percent coverage. For the reported percent coverage, 
+the landings of 'Salmon', 'Tuna', and 'Sharks' are incorporated in the FAO major fishing areas 
+from which their landings are reported. Thus, percent coverage calculated from this table will slightly different than reported elsewhere. 
+Area landings exclude landings from ISSCAAP codes 46, 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
+except for stocks which have been incorporated in assessment.</t>
         </is>
       </c>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="n">
-        <v>0.39069494</v>
+        <v>0.38149296</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
       <c r="I20" s="6" t="n"/>
     </row>
@@ -1069,22 +1069,22 @@
         <v>0.13268879</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>0.07928484</v>
+        <v>0.05711541</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>60.73272015179699</v>
+        <v>48.09540892729301</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>28.64299152271734</v>
+        <v>37.15646968129967</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>89.37571167451432</v>
+        <v>85.25187860859268</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
       <c r="I22" s="6" t="n"/>
     </row>
@@ -1098,22 +1098,22 @@
         <v>80.32918882</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>69.82710056945166</v>
+        <v>69.79572915945167</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26.54050139689777</v>
+        <v>26.52279856516361</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>48.26523387391202</v>
+        <v>48.27161252266269</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25.19426472919022</v>
+        <v>25.20558891217371</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>74.80573527080979</v>
+        <v>74.79441108782629</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>25.19426472919022</v>
+        <v>25.20558891217371</v>
       </c>
       <c r="I23" s="6" t="n"/>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
@@ -628,7 +628,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1.16149575</v>
+        <v>1.161495750000001</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>0.89686797</v>
@@ -739,22 +739,22 @@
         <v>1.46028682</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1.39220786</v>
+        <v>1.39155272</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7.732096114638104</v>
+        <v>7.735736368705187</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39.54942861025503</v>
+        <v>39.52096861246186</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>52.71847527510687</v>
+        <v>52.74329501883294</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>47.28152472489313</v>
+        <v>47.25670498116705</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>52.71847527510687</v>
+        <v>52.74329501883294</v>
       </c>
       <c r="I10" s="6" t="n"/>
     </row>
@@ -763,25 +763,25 @@
         <v>51</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>5.48062645</v>
+        <v>5.480626450000003</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5.225904689</v>
+        <v>5.225407434</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30.9130528322865</v>
+        <v>30.90647844926512</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44.25995074411082</v>
+        <v>44.26416256531046</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24.82699642360268</v>
+        <v>24.82935898542442</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>75.17300357639732</v>
+        <v>75.17064101457558</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>24.82699642360268</v>
+        <v>24.82935898542442</v>
       </c>
       <c r="I11" s="6" t="n"/>
     </row>
@@ -790,25 +790,25 @@
         <v>57</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>5.887074779999999</v>
+        <v>5.88707478</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>5.79783067577466</v>
+        <v>5.79764829077466</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>17.57075169619823</v>
+        <v>17.57130444472443</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>65.67706452598352</v>
+        <v>65.67598477980499</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>16.75218377781824</v>
+        <v>16.75271077547058</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>83.24781622218175</v>
+        <v>83.24728922452942</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>16.75218377781824</v>
+        <v>16.75271077547058</v>
       </c>
       <c r="I12" s="6" t="n"/>
     </row>
@@ -874,22 +874,22 @@
         <v>13.49297413</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11.46386725</v>
+        <v>11.463676695</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38.90120435778159</v>
+        <v>38.90185099316687</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21.0671245221444</v>
+        <v>21.06747471048451</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40.03167112007399</v>
+        <v>40.03067429634861</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>59.968328879926</v>
+        <v>59.96932570365138</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>40.03167112007399</v>
+        <v>40.03067429634861</v>
       </c>
       <c r="I15" s="6" t="n"/>
     </row>
@@ -901,22 +901,22 @@
         <v>1.95212903</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>1.710115875862069</v>
+        <v>1.708175780862069</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>51.92620410100511</v>
+        <v>51.87160332039483</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>33.59904490716222</v>
+        <v>33.63720569819994</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>14.47475099183266</v>
+        <v>14.49119098140523</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>85.52524900816734</v>
+        <v>85.50880901859477</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>14.47475099183266</v>
+        <v>14.49119098140523</v>
       </c>
       <c r="I16" s="6" t="n"/>
     </row>
@@ -1065,26 +1065,26 @@
           <t>Sharks</t>
         </is>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.13268879</v>
+      <c r="B22" s="9" t="n">
+        <v>0.08399280000000002</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>0.05711541</v>
+        <v>0.05642497</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>48.09540892729301</v>
+        <v>48.68392486517937</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>37.15646968129967</v>
+        <v>37.54857113791996</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>85.25187860859268</v>
+        <v>86.23249600309933</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
       <c r="I22" s="6" t="n"/>
     </row>
@@ -1095,25 +1095,25 @@
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>80.32918882</v>
+        <v>80.28049283</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>69.79572915945167</v>
+        <v>69.79157328945168</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26.52279856516361</v>
+        <v>26.52088558783936</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>48.27161252266269</v>
+        <v>48.27323632967825</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25.20558891217371</v>
+        <v>25.2058780824824</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>74.79441108782629</v>
+        <v>74.7941219175176</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>25.20558891217371</v>
+        <v>25.2058780824824</v>
       </c>
       <c r="I23" s="6" t="n"/>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
@@ -577,22 +577,22 @@
         <v>1.62029688</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>1.4545752346666</v>
+        <v>1.427322557196325</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>14.83950884246997</v>
+        <v>15.12284798418123</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>69.16115244927384</v>
+        <v>69.0794593258551</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>15.99933870825619</v>
+        <v>15.79769268996366</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>84.00066129174381</v>
+        <v>84.20230731003633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>15.99933870825619</v>
+        <v>15.79769268996366</v>
       </c>
       <c r="I4" s="6" t="n"/>
     </row>
@@ -601,25 +601,25 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>8.08049834</v>
+        <v>8.08050894</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>7.381833818965517</v>
+        <v>7.38183338196252</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.053026935476707</v>
+        <v>4.053027175415057</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>82.61770955610174</v>
+        <v>82.61771444705293</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>13.32926350842154</v>
+        <v>13.32925837753201</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>86.67073649157845</v>
+        <v>86.67074162246799</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>13.32926350842154</v>
+        <v>13.32925837753201</v>
       </c>
       <c r="I5" s="6" t="n"/>
     </row>
@@ -1010,23 +1010,23 @@
         </is>
       </c>
       <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n">
-        <v>0.38149296</v>
+      <c r="C20" s="9" t="n">
+        <v>0.07802511163319266</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
       <c r="I20" s="6" t="n"/>
     </row>
@@ -1069,22 +1069,22 @@
         <v>0.08399280000000002</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>0.05642497</v>
+        <v>0.05364998000000001</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>48.68392486517937</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>37.54857113791996</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>86.23249600309933</v>
+        <v>88.78525211006604</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="I22" s="6" t="n"/>
     </row>
@@ -1095,25 +1095,25 @@
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>80.28049283</v>
+        <v>80.28050343</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>69.79157328945168</v>
+        <v>69.45807733661159</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26.52088558783936</v>
+        <v>26.6472356589297</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>48.27323632967825</v>
+        <v>48.37613624522654</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25.2058780824824</v>
+        <v>24.97662809584375</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>74.7941219175176</v>
+        <v>75.02337190415624</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>25.2058780824824</v>
+        <v>24.97662809584375</v>
       </c>
       <c r="I23" s="6" t="n"/>
     </row>
@@ -1133,10 +1133,12 @@
       <c r="I24" t="inlineStr">
         <is>
           <t>Note: Percent coverage in this sheet does not reflect reported percent coverage. For the reported percent coverage, 
-the landings of 'Salmon', 'Tuna', and 'Sharks' are incorporated in the FAO major fishing areas 
+the landings of 'Deep Sea', 'Salmon', and 'Sharks' are incorporated in the FAO major fishing areas 
 from which their landings are reported. Thus, percent coverage calculated from this table will slightly different than reported elsewhere. 
-Area landings exclude landings from ISSCAAP codes 46, 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
-except for stocks which have been incorporated in assessment.</t>
+Area landings exclude landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
+except for stocks which have been incorporated in assessment. 
+Tuna status/landings have been incorporated into FAO area weighted percentages, so these will appear different 
+compared to tables with Tuna category separated.</t>
         </is>
       </c>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,22 +577,22 @@
         <v>1.62029688</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>1.427322557196325</v>
+        <v>1.516835668288222</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>15.12284798418123</v>
+        <v>14.23040248073289</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>69.0794593258551</v>
+        <v>68.9924596882579</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>15.79769268996366</v>
+        <v>16.77713783100922</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>84.20230731003633</v>
+        <v>83.22286216899079</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>15.79769268996366</v>
+        <v>16.77713783100922</v>
       </c>
       <c r="I4" s="6" t="n"/>
     </row>
@@ -604,22 +604,22 @@
         <v>8.08050894</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>7.38183338196252</v>
+        <v>7.381803703085714</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.053027175415057</v>
+        <v>4.053043470794758</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>82.61771444705293</v>
+        <v>82.61763864078203</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>13.32925837753201</v>
+        <v>13.32931788842321</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>86.67074162246799</v>
+        <v>86.6706821115768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>13.32925837753201</v>
+        <v>13.32931788842321</v>
       </c>
       <c r="I5" s="6" t="n"/>
     </row>
@@ -739,22 +739,22 @@
         <v>1.46028682</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1.39155272</v>
+        <v>1.39157077</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7.735736368705187</v>
+        <v>7.727087511077182</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39.52096861246186</v>
+        <v>39.54040439463089</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>52.74329501883294</v>
+        <v>52.73250809429192</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>47.25670498116705</v>
+        <v>47.26749190570807</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>52.74329501883294</v>
+        <v>52.73250809429192</v>
       </c>
       <c r="I10" s="6" t="n"/>
     </row>
@@ -820,22 +820,22 @@
         <v>19.06740346</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>14.414882479999</v>
+        <v>14.422036719999</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>31.63097076289422</v>
+        <v>31.46752270844408</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>41.07321568604861</v>
+        <v>41.15688395222003</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>27.29581355105716</v>
+        <v>27.37559333933591</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>72.70418644894283</v>
+        <v>72.62440666066411</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>27.29581355105716</v>
+        <v>27.37559333933591</v>
       </c>
       <c r="I13" s="6" t="n"/>
     </row>
@@ -987,10 +987,10 @@
         <v>0.38501975</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>98.90828111198626</v>
+        <v>98.47978014980617</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.091718888013754</v>
+        <v>1.520219850193832</v>
       </c>
       <c r="F19" s="8" t="n">
         <v>0</v>
@@ -1006,131 +1006,104 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Deep Sea</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="9" t="n">
-        <v>0.07802511163319266</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>0</v>
+          <t>Salmon</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>0.375009</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.375009</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>19.7353802540078</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>55.08837186735091</v>
+        <v>70.87896192485682</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>44.91162813264909</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>55.08837186735091</v>
+        <v>90.61434217886463</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>44.91162813264909</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="I20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Salmon</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>0.375009</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.375009</v>
+          <t>Sharks</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>0.08399280000000002</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>0.05364998000000001</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>19.7353802540078</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>70.87896192485682</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>9.38565782113537</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>90.61434217886463</v>
+        <v>88.78525211006604</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>9.38565782113537</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="I21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Sharks</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="n">
-        <v>0.08399280000000002</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>0.05364998000000001</v>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>80.28050343</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>69.47670794719349</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>49.92385831271513</v>
+        <v>26.6068726388459</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38.86139379735091</v>
+        <v>48.41272755377884</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11.21474788993398</v>
+        <v>24.98039980737526</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>88.78525211006604</v>
+        <v>75.01960019262474</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>11.21474788993398</v>
+        <v>24.98039980737526</v>
       </c>
       <c r="I22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>80.28050343</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>69.45807733661159</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>26.6472356589297</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>48.37613624522654</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>24.97662809584375</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>75.02337190415624</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>24.97662809584375</v>
-      </c>
-      <c r="I23" s="6" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
           <t>Footnote</t>
         </is>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
-      <c r="F24" s="6" t="n"/>
-      <c r="G24" s="6" t="n"/>
-      <c r="H24" s="6" t="n"/>
-      <c r="I24" t="inlineStr">
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
+      <c r="H23" s="6" t="n"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Note: Percent coverage in this sheet does not reflect reported percent coverage. For the reported percent coverage, 
 the landings of 'Deep Sea', 'Salmon', and 'Sharks' are incorporated in the FAO major fishing areas 

--- a/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_wo_tuna.xlsx
@@ -1106,7 +1106,7 @@
       <c r="I23" t="inlineStr">
         <is>
           <t>Note: Percent coverage in this sheet does not reflect reported percent coverage. For the reported percent coverage, 
-the landings of 'Deep Sea', 'Salmon', and 'Sharks' are incorporated in the FAO major fishing areas 
+the landings of 'Salmon', and 'Sharks' are incorporated in the FAO major fishing areas 
 from which their landings are reported. Thus, percent coverage calculated from this table will slightly different than reported elsewhere. 
 Area landings exclude landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
 except for stocks which have been incorporated in assessment. 
